--- a/Test Cases for Community Management Application Salim M Tarfa.xlsx
+++ b/Test Cases for Community Management Application Salim M Tarfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\WORK STUFF\Software Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C463C68C-B8CB-4680-859E-B0E4E066F3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC4A204-FBDF-4E5D-9F21-47ADB5E7F2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Test Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
   <si>
     <t>Test Case Template for Project</t>
   </si>
@@ -419,6 +419,15 @@
   </si>
   <si>
     <t>Test Cases for Community Management Application</t>
+  </si>
+  <si>
+    <t>Tenant ID</t>
+  </si>
+  <si>
+    <t>Landlord ID</t>
+  </si>
+  <si>
+    <t>Guard ID</t>
   </si>
 </sst>
 </file>
@@ -936,7 +945,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1298,7 +1307,9 @@
         <v>93</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1343,7 +1354,9 @@
         <v>93</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1388,7 +1401,9 @@
         <v>93</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1433,7 +1448,9 @@
         <v>93</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1478,7 +1495,9 @@
         <v>93</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1523,7 +1542,9 @@
         <v>93</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1568,7 +1589,9 @@
         <v>93</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1613,7 +1636,9 @@
         <v>93</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1658,7 +1683,9 @@
         <v>93</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1703,7 +1730,9 @@
         <v>93</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1747,8 +1776,10 @@
       <c r="H21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1792,8 +1823,10 @@
       <c r="H22" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1837,8 +1870,10 @@
       <c r="H23" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1882,8 +1917,10 @@
       <c r="H24" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1927,8 +1964,10 @@
       <c r="H25" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1972,8 +2011,10 @@
       <c r="H26" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2017,8 +2058,10 @@
       <c r="H27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2062,8 +2105,10 @@
       <c r="H28" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2107,8 +2152,10 @@
       <c r="H29" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2152,8 +2199,10 @@
       <c r="H30" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2197,8 +2246,10 @@
       <c r="H31" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2242,8 +2293,10 @@
       <c r="H32" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2287,8 +2340,10 @@
       <c r="H33" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2332,8 +2387,10 @@
       <c r="H34" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2377,8 +2434,10 @@
       <c r="H35" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2422,8 +2481,10 @@
       <c r="H36" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2467,8 +2528,10 @@
       <c r="H37" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2512,8 +2575,10 @@
       <c r="H38" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2557,8 +2622,10 @@
       <c r="H39" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2602,8 +2669,10 @@
       <c r="H40" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2647,8 +2716,10 @@
       <c r="H41" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2692,8 +2763,10 @@
       <c r="H42" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
